--- a/_xls/X-u5-i10_semindices.xlsx-recomendacoes_df-ma_fair.xlsx
+++ b/_xls/X-u5-i10_semindices.xlsx-recomendacoes_df-ma_fair.xlsx
@@ -467,162 +467,162 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.983694553375244</v>
+        <v>1.187918663024902</v>
       </c>
       <c r="B2" t="n">
-        <v>2.948141574859619</v>
+        <v>4.570724964141846</v>
       </c>
       <c r="C2" t="n">
-        <v>1.855464458465576</v>
+        <v>3.256818294525146</v>
       </c>
       <c r="D2" t="n">
-        <v>3.412428379058838</v>
+        <v>4.38529109954834</v>
       </c>
       <c r="E2" t="n">
-        <v>1.735446453094482</v>
+        <v>2.281364440917969</v>
       </c>
       <c r="F2" t="n">
-        <v>1.053825378417969</v>
+        <v>1.052357077598572</v>
       </c>
       <c r="G2" t="n">
-        <v>1.180513620376587</v>
+        <v>1.438615202903748</v>
       </c>
       <c r="H2" t="n">
-        <v>1.595338106155396</v>
+        <v>3.291899681091309</v>
       </c>
       <c r="I2" t="n">
-        <v>1.664442420005798</v>
+        <v>1.650006055831909</v>
       </c>
       <c r="J2" t="n">
-        <v>1.030287146568298</v>
+        <v>1.094329357147217</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.975090503692627</v>
+        <v>3.713195085525513</v>
       </c>
       <c r="B3" t="n">
-        <v>3.684900760650635</v>
+        <v>3.985491991043091</v>
       </c>
       <c r="C3" t="n">
-        <v>3.084118843078613</v>
+        <v>3.607208967208862</v>
       </c>
       <c r="D3" t="n">
-        <v>2.720161437988281</v>
+        <v>2.522738933563232</v>
       </c>
       <c r="E3" t="n">
-        <v>1.036568999290466</v>
+        <v>1.279842615127563</v>
       </c>
       <c r="F3" t="n">
-        <v>3.307708263397217</v>
+        <v>4.321383953094482</v>
       </c>
       <c r="G3" t="n">
-        <v>1.036445379257202</v>
+        <v>2.59636116027832</v>
       </c>
       <c r="H3" t="n">
-        <v>2.583151340484619</v>
+        <v>1.821006417274475</v>
       </c>
       <c r="I3" t="n">
-        <v>2.315520763397217</v>
+        <v>3.158899307250977</v>
       </c>
       <c r="J3" t="n">
-        <v>1.782108306884766</v>
+        <v>3.589974641799927</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4.564484596252441</v>
+        <v>3.952038526535034</v>
       </c>
       <c r="B4" t="n">
-        <v>2.276690483093262</v>
+        <v>2.091737747192383</v>
       </c>
       <c r="C4" t="n">
-        <v>1.183430552482605</v>
+        <v>1.183892488479614</v>
       </c>
       <c r="D4" t="n">
-        <v>2.02268648147583</v>
+        <v>4.072432518005371</v>
       </c>
       <c r="E4" t="n">
-        <v>3.55640435218811</v>
+        <v>3.669929265975952</v>
       </c>
       <c r="F4" t="n">
-        <v>1.03844690322876</v>
+        <v>3.962157249450684</v>
       </c>
       <c r="G4" t="n">
-        <v>1.089424133300781</v>
+        <v>2.7535240650177</v>
       </c>
       <c r="H4" t="n">
-        <v>1.077081918716431</v>
+        <v>2.830045700073242</v>
       </c>
       <c r="I4" t="n">
-        <v>1.593130588531494</v>
+        <v>1.751147270202637</v>
       </c>
       <c r="J4" t="n">
-        <v>1.349694132804871</v>
+        <v>1.487310767173767</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.584743857383728</v>
+        <v>1.963881969451904</v>
       </c>
       <c r="B5" t="n">
-        <v>1.205252885818481</v>
+        <v>2.727509021759033</v>
       </c>
       <c r="C5" t="n">
-        <v>1.006430625915527</v>
+        <v>3.532060384750366</v>
       </c>
       <c r="D5" t="n">
-        <v>1.466227889060974</v>
+        <v>1.82365608215332</v>
       </c>
       <c r="E5" t="n">
-        <v>1.21245801448822</v>
+        <v>3.661949872970581</v>
       </c>
       <c r="F5" t="n">
-        <v>1.18652880191803</v>
+        <v>1.95543360710144</v>
       </c>
       <c r="G5" t="n">
-        <v>1.020390272140503</v>
+        <v>3.353804111480713</v>
       </c>
       <c r="H5" t="n">
-        <v>4.067792892456055</v>
+        <v>4.526766300201416</v>
       </c>
       <c r="I5" t="n">
-        <v>2.156798362731934</v>
+        <v>3.529336214065552</v>
       </c>
       <c r="J5" t="n">
-        <v>1.783599853515625</v>
+        <v>3.410011768341064</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3.101271629333496</v>
+        <v>1.984375834465027</v>
       </c>
       <c r="B6" t="n">
-        <v>1.28119158744812</v>
+        <v>1.721054434776306</v>
       </c>
       <c r="C6" t="n">
-        <v>3.165785312652588</v>
+        <v>3.118913888931274</v>
       </c>
       <c r="D6" t="n">
-        <v>1.7786545753479</v>
+        <v>3.886157751083374</v>
       </c>
       <c r="E6" t="n">
-        <v>4.325071811676025</v>
+        <v>3.203749656677246</v>
       </c>
       <c r="F6" t="n">
-        <v>1.062481760978699</v>
+        <v>3.349074363708496</v>
       </c>
       <c r="G6" t="n">
-        <v>2.572579860687256</v>
+        <v>4.393288612365723</v>
       </c>
       <c r="H6" t="n">
-        <v>1.045531153678894</v>
+        <v>2.36484169960022</v>
       </c>
       <c r="I6" t="n">
-        <v>4.311381340026855</v>
+        <v>4.790804862976074</v>
       </c>
       <c r="J6" t="n">
-        <v>2.015390872955322</v>
+        <v>4.412095069885254</v>
       </c>
     </row>
   </sheetData>

--- a/_xls/X-u5-i10_semindices.xlsx-recomendacoes_df-ma_fair.xlsx
+++ b/_xls/X-u5-i10_semindices.xlsx-recomendacoes_df-ma_fair.xlsx
@@ -467,162 +467,162 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.187918663024902</v>
+        <v>2.387476921081543</v>
       </c>
       <c r="B2" t="n">
-        <v>4.570724964141846</v>
+        <v>3.057364940643311</v>
       </c>
       <c r="C2" t="n">
-        <v>3.256818294525146</v>
+        <v>2.186184406280518</v>
       </c>
       <c r="D2" t="n">
-        <v>4.38529109954834</v>
+        <v>4.488860607147217</v>
       </c>
       <c r="E2" t="n">
-        <v>2.281364440917969</v>
+        <v>2.230190753936768</v>
       </c>
       <c r="F2" t="n">
-        <v>1.052357077598572</v>
+        <v>1.457738280296326</v>
       </c>
       <c r="G2" t="n">
-        <v>1.438615202903748</v>
+        <v>1.595148921012878</v>
       </c>
       <c r="H2" t="n">
-        <v>3.291899681091309</v>
+        <v>3.228212356567383</v>
       </c>
       <c r="I2" t="n">
-        <v>1.650006055831909</v>
+        <v>2.088571786880493</v>
       </c>
       <c r="J2" t="n">
-        <v>1.094329357147217</v>
+        <v>1.16322660446167</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3.713195085525513</v>
+        <v>2.194726467132568</v>
       </c>
       <c r="B3" t="n">
-        <v>3.985491991043091</v>
+        <v>2.783298492431641</v>
       </c>
       <c r="C3" t="n">
-        <v>3.607208967208862</v>
+        <v>2.607781410217285</v>
       </c>
       <c r="D3" t="n">
-        <v>2.522738933563232</v>
+        <v>3.717937707901001</v>
       </c>
       <c r="E3" t="n">
-        <v>1.279842615127563</v>
+        <v>1.313488006591797</v>
       </c>
       <c r="F3" t="n">
-        <v>4.321383953094482</v>
+        <v>2.948045015335083</v>
       </c>
       <c r="G3" t="n">
-        <v>2.59636116027832</v>
+        <v>2.872097969055176</v>
       </c>
       <c r="H3" t="n">
-        <v>1.821006417274475</v>
+        <v>1.438216328620911</v>
       </c>
       <c r="I3" t="n">
-        <v>3.158899307250977</v>
+        <v>2.910200595855713</v>
       </c>
       <c r="J3" t="n">
-        <v>3.589974641799927</v>
+        <v>3.231796503067017</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3.952038526535034</v>
+        <v>2.904665946960449</v>
       </c>
       <c r="B4" t="n">
-        <v>2.091737747192383</v>
+        <v>2.806566715240479</v>
       </c>
       <c r="C4" t="n">
-        <v>1.183892488479614</v>
+        <v>1.618147850036621</v>
       </c>
       <c r="D4" t="n">
-        <v>4.072432518005371</v>
+        <v>4.296274185180664</v>
       </c>
       <c r="E4" t="n">
-        <v>3.669929265975952</v>
+        <v>3.598071575164795</v>
       </c>
       <c r="F4" t="n">
-        <v>3.962157249450684</v>
+        <v>1.647003412246704</v>
       </c>
       <c r="G4" t="n">
-        <v>2.7535240650177</v>
+        <v>1.303848505020142</v>
       </c>
       <c r="H4" t="n">
-        <v>2.830045700073242</v>
+        <v>3.091490983963013</v>
       </c>
       <c r="I4" t="n">
-        <v>1.751147270202637</v>
+        <v>1.619538545608521</v>
       </c>
       <c r="J4" t="n">
-        <v>1.487310767173767</v>
+        <v>1.218919515609741</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.963881969451904</v>
+        <v>1.853852391242981</v>
       </c>
       <c r="B5" t="n">
-        <v>2.727509021759033</v>
+        <v>1.369168996810913</v>
       </c>
       <c r="C5" t="n">
-        <v>3.532060384750366</v>
+        <v>3.707964897155762</v>
       </c>
       <c r="D5" t="n">
-        <v>1.82365608215332</v>
+        <v>1.476060152053833</v>
       </c>
       <c r="E5" t="n">
-        <v>3.661949872970581</v>
+        <v>4.26026725769043</v>
       </c>
       <c r="F5" t="n">
-        <v>1.95543360710144</v>
+        <v>2.718865156173706</v>
       </c>
       <c r="G5" t="n">
-        <v>3.353804111480713</v>
+        <v>3.213266849517822</v>
       </c>
       <c r="H5" t="n">
-        <v>4.526766300201416</v>
+        <v>4.803536891937256</v>
       </c>
       <c r="I5" t="n">
-        <v>3.529336214065552</v>
+        <v>2.615335941314697</v>
       </c>
       <c r="J5" t="n">
-        <v>3.410011768341064</v>
+        <v>3.337287187576294</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.984375834465027</v>
+        <v>1.797070264816284</v>
       </c>
       <c r="B6" t="n">
-        <v>1.721054434776306</v>
+        <v>2.277634859085083</v>
       </c>
       <c r="C6" t="n">
-        <v>3.118913888931274</v>
+        <v>4.185859680175781</v>
       </c>
       <c r="D6" t="n">
-        <v>3.886157751083374</v>
+        <v>2.76716947555542</v>
       </c>
       <c r="E6" t="n">
-        <v>3.203749656677246</v>
+        <v>4.305496215820312</v>
       </c>
       <c r="F6" t="n">
-        <v>3.349074363708496</v>
+        <v>2.31461501121521</v>
       </c>
       <c r="G6" t="n">
-        <v>4.393288612365723</v>
+        <v>4.034605979919434</v>
       </c>
       <c r="H6" t="n">
-        <v>2.36484169960022</v>
+        <v>3.849551916122437</v>
       </c>
       <c r="I6" t="n">
-        <v>4.790804862976074</v>
+        <v>3.972039461135864</v>
       </c>
       <c r="J6" t="n">
-        <v>4.412095069885254</v>
+        <v>3.684432029724121</v>
       </c>
     </row>
   </sheetData>

--- a/_xls/X-u5-i10_semindices.xlsx-recomendacoes_df-ma_fair.xlsx
+++ b/_xls/X-u5-i10_semindices.xlsx-recomendacoes_df-ma_fair.xlsx
@@ -467,162 +467,162 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.387476921081543</v>
+        <v>3.392519235610962</v>
       </c>
       <c r="B2" t="n">
-        <v>3.057364940643311</v>
+        <v>2.838119983673096</v>
       </c>
       <c r="C2" t="n">
-        <v>2.186184406280518</v>
+        <v>4.464120864868164</v>
       </c>
       <c r="D2" t="n">
-        <v>4.488860607147217</v>
+        <v>3.800690889358521</v>
       </c>
       <c r="E2" t="n">
-        <v>2.230190753936768</v>
+        <v>1.313697338104248</v>
       </c>
       <c r="F2" t="n">
-        <v>1.457738280296326</v>
+        <v>3.585675716400146</v>
       </c>
       <c r="G2" t="n">
-        <v>1.595148921012878</v>
+        <v>1.229597806930542</v>
       </c>
       <c r="H2" t="n">
-        <v>3.228212356567383</v>
+        <v>2.252444982528687</v>
       </c>
       <c r="I2" t="n">
-        <v>2.088571786880493</v>
+        <v>1.547621726989746</v>
       </c>
       <c r="J2" t="n">
-        <v>1.16322660446167</v>
+        <v>1.092061400413513</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.194726467132568</v>
+        <v>2.831722974777222</v>
       </c>
       <c r="B3" t="n">
-        <v>2.783298492431641</v>
+        <v>4.697758674621582</v>
       </c>
       <c r="C3" t="n">
-        <v>2.607781410217285</v>
+        <v>4.032960891723633</v>
       </c>
       <c r="D3" t="n">
-        <v>3.717937707901001</v>
+        <v>2.703367710113525</v>
       </c>
       <c r="E3" t="n">
-        <v>1.313488006591797</v>
+        <v>1.384551286697388</v>
       </c>
       <c r="F3" t="n">
-        <v>2.948045015335083</v>
+        <v>4.627627849578857</v>
       </c>
       <c r="G3" t="n">
-        <v>2.872097969055176</v>
+        <v>1.043817758560181</v>
       </c>
       <c r="H3" t="n">
-        <v>1.438216328620911</v>
+        <v>1.213775277137756</v>
       </c>
       <c r="I3" t="n">
-        <v>2.910200595855713</v>
+        <v>1.196791768074036</v>
       </c>
       <c r="J3" t="n">
-        <v>3.231796503067017</v>
+        <v>2.038016557693481</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2.904665946960449</v>
+        <v>4.732499122619629</v>
       </c>
       <c r="B4" t="n">
-        <v>2.806566715240479</v>
+        <v>4.340856552124023</v>
       </c>
       <c r="C4" t="n">
-        <v>1.618147850036621</v>
+        <v>1.074355244636536</v>
       </c>
       <c r="D4" t="n">
-        <v>4.296274185180664</v>
+        <v>1.2921462059021</v>
       </c>
       <c r="E4" t="n">
-        <v>3.598071575164795</v>
+        <v>2.843750715255737</v>
       </c>
       <c r="F4" t="n">
-        <v>1.647003412246704</v>
+        <v>3.915357828140259</v>
       </c>
       <c r="G4" t="n">
-        <v>1.303848505020142</v>
+        <v>1.144350409507751</v>
       </c>
       <c r="H4" t="n">
-        <v>3.091490983963013</v>
+        <v>1.116314888000488</v>
       </c>
       <c r="I4" t="n">
-        <v>1.619538545608521</v>
+        <v>1.382110834121704</v>
       </c>
       <c r="J4" t="n">
-        <v>1.218919515609741</v>
+        <v>3.864950895309448</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.853852391242981</v>
+        <v>3.339781045913696</v>
       </c>
       <c r="B5" t="n">
-        <v>1.369168996810913</v>
+        <v>1.186729669570923</v>
       </c>
       <c r="C5" t="n">
-        <v>3.707964897155762</v>
+        <v>1.387772798538208</v>
       </c>
       <c r="D5" t="n">
-        <v>1.476060152053833</v>
+        <v>1.516612529754639</v>
       </c>
       <c r="E5" t="n">
-        <v>4.26026725769043</v>
+        <v>2.841811180114746</v>
       </c>
       <c r="F5" t="n">
-        <v>2.718865156173706</v>
+        <v>1.654371619224548</v>
       </c>
       <c r="G5" t="n">
-        <v>3.213266849517822</v>
+        <v>3.422446489334106</v>
       </c>
       <c r="H5" t="n">
-        <v>4.803536891937256</v>
+        <v>4.958427429199219</v>
       </c>
       <c r="I5" t="n">
-        <v>2.615335941314697</v>
+        <v>4.700743198394775</v>
       </c>
       <c r="J5" t="n">
-        <v>3.337287187576294</v>
+        <v>2.536390542984009</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.797070264816284</v>
+        <v>3.072546482086182</v>
       </c>
       <c r="B6" t="n">
-        <v>2.277634859085083</v>
+        <v>2.582145214080811</v>
       </c>
       <c r="C6" t="n">
-        <v>4.185859680175781</v>
+        <v>3.420547962188721</v>
       </c>
       <c r="D6" t="n">
-        <v>2.76716947555542</v>
+        <v>2.473924160003662</v>
       </c>
       <c r="E6" t="n">
-        <v>4.305496215820312</v>
+        <v>1.719134569168091</v>
       </c>
       <c r="F6" t="n">
-        <v>2.31461501121521</v>
+        <v>2.161774873733521</v>
       </c>
       <c r="G6" t="n">
-        <v>4.034605979919434</v>
+        <v>4.790219306945801</v>
       </c>
       <c r="H6" t="n">
-        <v>3.849551916122437</v>
+        <v>4.302947521209717</v>
       </c>
       <c r="I6" t="n">
-        <v>3.972039461135864</v>
+        <v>4.662179470062256</v>
       </c>
       <c r="J6" t="n">
-        <v>3.684432029724121</v>
+        <v>3.731069087982178</v>
       </c>
     </row>
   </sheetData>

--- a/_xls/X-u5-i10_semindices.xlsx-recomendacoes_df-ma_fair.xlsx
+++ b/_xls/X-u5-i10_semindices.xlsx-recomendacoes_df-ma_fair.xlsx
@@ -467,162 +467,162 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3.392519235610962</v>
+        <v>3.334439754486084</v>
       </c>
       <c r="B2" t="n">
-        <v>2.838119983673096</v>
+        <v>3.449259042739868</v>
       </c>
       <c r="C2" t="n">
-        <v>4.464120864868164</v>
+        <v>2.814005374908447</v>
       </c>
       <c r="D2" t="n">
-        <v>3.800690889358521</v>
+        <v>3.871934652328491</v>
       </c>
       <c r="E2" t="n">
-        <v>1.313697338104248</v>
+        <v>3.721969842910767</v>
       </c>
       <c r="F2" t="n">
-        <v>3.585675716400146</v>
+        <v>3.099331617355347</v>
       </c>
       <c r="G2" t="n">
-        <v>1.229597806930542</v>
+        <v>2.968499660491943</v>
       </c>
       <c r="H2" t="n">
-        <v>2.252444982528687</v>
+        <v>2.823794364929199</v>
       </c>
       <c r="I2" t="n">
-        <v>1.547621726989746</v>
+        <v>2.738745450973511</v>
       </c>
       <c r="J2" t="n">
-        <v>1.092061400413513</v>
+        <v>2.060497283935547</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.831722974777222</v>
+        <v>2.643460750579834</v>
       </c>
       <c r="B3" t="n">
-        <v>4.697758674621582</v>
+        <v>3.80828332901001</v>
       </c>
       <c r="C3" t="n">
-        <v>4.032960891723633</v>
+        <v>4.08452033996582</v>
       </c>
       <c r="D3" t="n">
-        <v>2.703367710113525</v>
+        <v>3.664150238037109</v>
       </c>
       <c r="E3" t="n">
-        <v>1.384551286697388</v>
+        <v>1.946393251419067</v>
       </c>
       <c r="F3" t="n">
-        <v>4.627627849578857</v>
+        <v>4.038105010986328</v>
       </c>
       <c r="G3" t="n">
-        <v>1.043817758560181</v>
+        <v>3.527624130249023</v>
       </c>
       <c r="H3" t="n">
-        <v>1.213775277137756</v>
+        <v>2.24458646774292</v>
       </c>
       <c r="I3" t="n">
-        <v>1.196791768074036</v>
+        <v>3.068460702896118</v>
       </c>
       <c r="J3" t="n">
-        <v>2.038016557693481</v>
+        <v>3.097316741943359</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4.732499122619629</v>
+        <v>2.313623905181885</v>
       </c>
       <c r="B4" t="n">
-        <v>4.340856552124023</v>
+        <v>3.769156455993652</v>
       </c>
       <c r="C4" t="n">
-        <v>1.074355244636536</v>
+        <v>2.972076416015625</v>
       </c>
       <c r="D4" t="n">
-        <v>1.2921462059021</v>
+        <v>4.3763427734375</v>
       </c>
       <c r="E4" t="n">
-        <v>2.843750715255737</v>
+        <v>3.784059047698975</v>
       </c>
       <c r="F4" t="n">
-        <v>3.915357828140259</v>
+        <v>1.870782136917114</v>
       </c>
       <c r="G4" t="n">
-        <v>1.144350409507751</v>
+        <v>4.327192306518555</v>
       </c>
       <c r="H4" t="n">
-        <v>1.116314888000488</v>
+        <v>2.434748649597168</v>
       </c>
       <c r="I4" t="n">
-        <v>1.382110834121704</v>
+        <v>2.039829730987549</v>
       </c>
       <c r="J4" t="n">
-        <v>3.864950895309448</v>
+        <v>3.772359132766724</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3.339781045913696</v>
+        <v>2.52531909942627</v>
       </c>
       <c r="B5" t="n">
-        <v>1.186729669570923</v>
+        <v>2.809303760528564</v>
       </c>
       <c r="C5" t="n">
-        <v>1.387772798538208</v>
+        <v>2.242650508880615</v>
       </c>
       <c r="D5" t="n">
-        <v>1.516612529754639</v>
+        <v>1.810477256774902</v>
       </c>
       <c r="E5" t="n">
-        <v>2.841811180114746</v>
+        <v>3.057805061340332</v>
       </c>
       <c r="F5" t="n">
-        <v>1.654371619224548</v>
+        <v>4.11679744720459</v>
       </c>
       <c r="G5" t="n">
-        <v>3.422446489334106</v>
+        <v>4.280640125274658</v>
       </c>
       <c r="H5" t="n">
-        <v>4.958427429199219</v>
+        <v>4.411901473999023</v>
       </c>
       <c r="I5" t="n">
-        <v>4.700743198394775</v>
+        <v>2.78389573097229</v>
       </c>
       <c r="J5" t="n">
-        <v>2.536390542984009</v>
+        <v>2.272354602813721</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3.072546482086182</v>
+        <v>2.658090114593506</v>
       </c>
       <c r="B6" t="n">
-        <v>2.582145214080811</v>
+        <v>3.397740602493286</v>
       </c>
       <c r="C6" t="n">
-        <v>3.420547962188721</v>
+        <v>4.752458572387695</v>
       </c>
       <c r="D6" t="n">
-        <v>2.473924160003662</v>
+        <v>2.609010696411133</v>
       </c>
       <c r="E6" t="n">
-        <v>1.719134569168091</v>
+        <v>2.656535625457764</v>
       </c>
       <c r="F6" t="n">
-        <v>2.161774873733521</v>
+        <v>3.745766162872314</v>
       </c>
       <c r="G6" t="n">
-        <v>4.790219306945801</v>
+        <v>1.917328119277954</v>
       </c>
       <c r="H6" t="n">
-        <v>4.302947521209717</v>
+        <v>2.938098907470703</v>
       </c>
       <c r="I6" t="n">
-        <v>4.662179470062256</v>
+        <v>2.21811842918396</v>
       </c>
       <c r="J6" t="n">
-        <v>3.731069087982178</v>
+        <v>3.186016321182251</v>
       </c>
     </row>
   </sheetData>

--- a/_xls/X-u5-i10_semindices.xlsx-recomendacoes_df-ma_fair.xlsx
+++ b/_xls/X-u5-i10_semindices.xlsx-recomendacoes_df-ma_fair.xlsx
@@ -467,162 +467,162 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3.334439754486084</v>
+        <v>2.902062892913818</v>
       </c>
       <c r="B2" t="n">
-        <v>3.449259042739868</v>
+        <v>3.086867570877075</v>
       </c>
       <c r="C2" t="n">
-        <v>2.814005374908447</v>
+        <v>3.781986951828003</v>
       </c>
       <c r="D2" t="n">
-        <v>3.871934652328491</v>
+        <v>4.035277843475342</v>
       </c>
       <c r="E2" t="n">
-        <v>3.721969842910767</v>
+        <v>3.549916982650757</v>
       </c>
       <c r="F2" t="n">
-        <v>3.099331617355347</v>
+        <v>4.270427703857422</v>
       </c>
       <c r="G2" t="n">
-        <v>2.968499660491943</v>
+        <v>2.430854320526123</v>
       </c>
       <c r="H2" t="n">
-        <v>2.823794364929199</v>
+        <v>2.919344425201416</v>
       </c>
       <c r="I2" t="n">
-        <v>2.738745450973511</v>
+        <v>3.983708143234253</v>
       </c>
       <c r="J2" t="n">
-        <v>2.060497283935547</v>
+        <v>2.770543813705444</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.643460750579834</v>
+        <v>4.155006408691406</v>
       </c>
       <c r="B3" t="n">
-        <v>3.80828332901001</v>
+        <v>2.982557773590088</v>
       </c>
       <c r="C3" t="n">
-        <v>4.08452033996582</v>
+        <v>3.68275785446167</v>
       </c>
       <c r="D3" t="n">
-        <v>3.664150238037109</v>
+        <v>3.418045282363892</v>
       </c>
       <c r="E3" t="n">
-        <v>1.946393251419067</v>
+        <v>1.524649858474731</v>
       </c>
       <c r="F3" t="n">
-        <v>4.038105010986328</v>
+        <v>3.292633056640625</v>
       </c>
       <c r="G3" t="n">
-        <v>3.527624130249023</v>
+        <v>2.753050804138184</v>
       </c>
       <c r="H3" t="n">
-        <v>2.24458646774292</v>
+        <v>3.739095687866211</v>
       </c>
       <c r="I3" t="n">
-        <v>3.068460702896118</v>
+        <v>3.072434663772583</v>
       </c>
       <c r="J3" t="n">
-        <v>3.097316741943359</v>
+        <v>4.114872455596924</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2.313623905181885</v>
+        <v>3.193989276885986</v>
       </c>
       <c r="B4" t="n">
-        <v>3.769156455993652</v>
+        <v>4.278130531311035</v>
       </c>
       <c r="C4" t="n">
-        <v>2.972076416015625</v>
+        <v>4.745611190795898</v>
       </c>
       <c r="D4" t="n">
-        <v>4.3763427734375</v>
+        <v>3.087674140930176</v>
       </c>
       <c r="E4" t="n">
-        <v>3.784059047698975</v>
+        <v>3.574633121490479</v>
       </c>
       <c r="F4" t="n">
-        <v>1.870782136917114</v>
+        <v>3.38529372215271</v>
       </c>
       <c r="G4" t="n">
-        <v>4.327192306518555</v>
+        <v>3.832726001739502</v>
       </c>
       <c r="H4" t="n">
-        <v>2.434748649597168</v>
+        <v>2.565372467041016</v>
       </c>
       <c r="I4" t="n">
-        <v>2.039829730987549</v>
+        <v>2.592373609542847</v>
       </c>
       <c r="J4" t="n">
-        <v>3.772359132766724</v>
+        <v>3.514141798019409</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2.52531909942627</v>
+        <v>1.671010971069336</v>
       </c>
       <c r="B5" t="n">
-        <v>2.809303760528564</v>
+        <v>3.347788095474243</v>
       </c>
       <c r="C5" t="n">
-        <v>2.242650508880615</v>
+        <v>3.396894931793213</v>
       </c>
       <c r="D5" t="n">
-        <v>1.810477256774902</v>
+        <v>2.492906332015991</v>
       </c>
       <c r="E5" t="n">
-        <v>3.057805061340332</v>
+        <v>1.83719539642334</v>
       </c>
       <c r="F5" t="n">
-        <v>4.11679744720459</v>
+        <v>2.095113039016724</v>
       </c>
       <c r="G5" t="n">
-        <v>4.280640125274658</v>
+        <v>2.948415279388428</v>
       </c>
       <c r="H5" t="n">
-        <v>4.411901473999023</v>
+        <v>2.540196895599365</v>
       </c>
       <c r="I5" t="n">
-        <v>2.78389573097229</v>
+        <v>3.03910493850708</v>
       </c>
       <c r="J5" t="n">
-        <v>2.272354602813721</v>
+        <v>3.424912452697754</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2.658090114593506</v>
+        <v>2.87766170501709</v>
       </c>
       <c r="B6" t="n">
-        <v>3.397740602493286</v>
+        <v>2.574139833450317</v>
       </c>
       <c r="C6" t="n">
-        <v>4.752458572387695</v>
+        <v>4.579920768737793</v>
       </c>
       <c r="D6" t="n">
-        <v>2.609010696411133</v>
+        <v>3.427861928939819</v>
       </c>
       <c r="E6" t="n">
-        <v>2.656535625457764</v>
+        <v>2.687094688415527</v>
       </c>
       <c r="F6" t="n">
-        <v>3.745766162872314</v>
+        <v>2.949735403060913</v>
       </c>
       <c r="G6" t="n">
-        <v>1.917328119277954</v>
+        <v>3.281429290771484</v>
       </c>
       <c r="H6" t="n">
-        <v>2.938098907470703</v>
+        <v>2.183261394500732</v>
       </c>
       <c r="I6" t="n">
-        <v>2.21811842918396</v>
+        <v>2.459664344787598</v>
       </c>
       <c r="J6" t="n">
-        <v>3.186016321182251</v>
+        <v>3.049736261367798</v>
       </c>
     </row>
   </sheetData>

--- a/_xls/X-u5-i10_semindices.xlsx-recomendacoes_df-ma_fair.xlsx
+++ b/_xls/X-u5-i10_semindices.xlsx-recomendacoes_df-ma_fair.xlsx
@@ -467,162 +467,162 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.902062892913818</v>
+        <v>2.390043973922729</v>
       </c>
       <c r="B2" t="n">
-        <v>3.086867570877075</v>
+        <v>3.912587642669678</v>
       </c>
       <c r="C2" t="n">
-        <v>3.781986951828003</v>
+        <v>2.46368670463562</v>
       </c>
       <c r="D2" t="n">
-        <v>4.035277843475342</v>
+        <v>3.811105012893677</v>
       </c>
       <c r="E2" t="n">
-        <v>3.549916982650757</v>
+        <v>2.177817106246948</v>
       </c>
       <c r="F2" t="n">
-        <v>4.270427703857422</v>
+        <v>2.62100887298584</v>
       </c>
       <c r="G2" t="n">
-        <v>2.430854320526123</v>
+        <v>2.229094266891479</v>
       </c>
       <c r="H2" t="n">
-        <v>2.919344425201416</v>
+        <v>2.779277801513672</v>
       </c>
       <c r="I2" t="n">
-        <v>3.983708143234253</v>
+        <v>2.13034725189209</v>
       </c>
       <c r="J2" t="n">
-        <v>2.770543813705444</v>
+        <v>1.791130781173706</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4.155006408691406</v>
+        <v>3.50489616394043</v>
       </c>
       <c r="B3" t="n">
-        <v>2.982557773590088</v>
+        <v>3.518494844436646</v>
       </c>
       <c r="C3" t="n">
-        <v>3.68275785446167</v>
+        <v>2.47504711151123</v>
       </c>
       <c r="D3" t="n">
-        <v>3.418045282363892</v>
+        <v>4.319181442260742</v>
       </c>
       <c r="E3" t="n">
-        <v>1.524649858474731</v>
+        <v>4.129179000854492</v>
       </c>
       <c r="F3" t="n">
-        <v>3.292633056640625</v>
+        <v>2.79299259185791</v>
       </c>
       <c r="G3" t="n">
-        <v>2.753050804138184</v>
+        <v>2.748009204864502</v>
       </c>
       <c r="H3" t="n">
-        <v>3.739095687866211</v>
+        <v>1.82437801361084</v>
       </c>
       <c r="I3" t="n">
-        <v>3.072434663772583</v>
+        <v>1.512712717056274</v>
       </c>
       <c r="J3" t="n">
-        <v>4.114872455596924</v>
+        <v>3.0307457447052</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3.193989276885986</v>
+        <v>3.314495801925659</v>
       </c>
       <c r="B4" t="n">
-        <v>4.278130531311035</v>
+        <v>2.744935989379883</v>
       </c>
       <c r="C4" t="n">
-        <v>4.745611190795898</v>
+        <v>2.079994201660156</v>
       </c>
       <c r="D4" t="n">
-        <v>3.087674140930176</v>
+        <v>3.745048761367798</v>
       </c>
       <c r="E4" t="n">
-        <v>3.574633121490479</v>
+        <v>4.222152233123779</v>
       </c>
       <c r="F4" t="n">
-        <v>3.38529372215271</v>
+        <v>2.582900047302246</v>
       </c>
       <c r="G4" t="n">
-        <v>3.832726001739502</v>
+        <v>2.057669639587402</v>
       </c>
       <c r="H4" t="n">
-        <v>2.565372467041016</v>
+        <v>1.582682609558105</v>
       </c>
       <c r="I4" t="n">
-        <v>2.592373609542847</v>
+        <v>2.447754383087158</v>
       </c>
       <c r="J4" t="n">
-        <v>3.514141798019409</v>
+        <v>2.721643447875977</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.671010971069336</v>
+        <v>3.71485710144043</v>
       </c>
       <c r="B5" t="n">
-        <v>3.347788095474243</v>
+        <v>1.383512020111084</v>
       </c>
       <c r="C5" t="n">
-        <v>3.396894931793213</v>
+        <v>2.323132991790771</v>
       </c>
       <c r="D5" t="n">
-        <v>2.492906332015991</v>
+        <v>3.44939112663269</v>
       </c>
       <c r="E5" t="n">
-        <v>1.83719539642334</v>
+        <v>2.601175308227539</v>
       </c>
       <c r="F5" t="n">
-        <v>2.095113039016724</v>
+        <v>2.384447574615479</v>
       </c>
       <c r="G5" t="n">
-        <v>2.948415279388428</v>
+        <v>2.605416297912598</v>
       </c>
       <c r="H5" t="n">
-        <v>2.540196895599365</v>
+        <v>4.322493553161621</v>
       </c>
       <c r="I5" t="n">
-        <v>3.03910493850708</v>
+        <v>3.7389817237854</v>
       </c>
       <c r="J5" t="n">
-        <v>3.424912452697754</v>
+        <v>3.526368618011475</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2.87766170501709</v>
+        <v>2.785403728485107</v>
       </c>
       <c r="B6" t="n">
-        <v>2.574139833450317</v>
+        <v>2.708170890808105</v>
       </c>
       <c r="C6" t="n">
-        <v>4.579920768737793</v>
+        <v>1.455464720726013</v>
       </c>
       <c r="D6" t="n">
-        <v>3.427861928939819</v>
+        <v>3.309795379638672</v>
       </c>
       <c r="E6" t="n">
-        <v>2.687094688415527</v>
+        <v>3.319530248641968</v>
       </c>
       <c r="F6" t="n">
-        <v>2.949735403060913</v>
+        <v>2.813050508499146</v>
       </c>
       <c r="G6" t="n">
-        <v>3.281429290771484</v>
+        <v>4.336934089660645</v>
       </c>
       <c r="H6" t="n">
-        <v>2.183261394500732</v>
+        <v>3.053000688552856</v>
       </c>
       <c r="I6" t="n">
-        <v>2.459664344787598</v>
+        <v>3.564689159393311</v>
       </c>
       <c r="J6" t="n">
-        <v>3.049736261367798</v>
+        <v>2.901183128356934</v>
       </c>
     </row>
   </sheetData>

--- a/_xls/X-u5-i10_semindices.xlsx-recomendacoes_df-ma_fair.xlsx
+++ b/_xls/X-u5-i10_semindices.xlsx-recomendacoes_df-ma_fair.xlsx
@@ -467,162 +467,162 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.390043973922729</v>
+        <v>2.998963832855225</v>
       </c>
       <c r="B2" t="n">
-        <v>3.912587642669678</v>
+        <v>4.279035568237305</v>
       </c>
       <c r="C2" t="n">
-        <v>2.46368670463562</v>
+        <v>2.815958023071289</v>
       </c>
       <c r="D2" t="n">
-        <v>3.811105012893677</v>
+        <v>3.777924299240112</v>
       </c>
       <c r="E2" t="n">
-        <v>2.177817106246948</v>
+        <v>1.316923022270203</v>
       </c>
       <c r="F2" t="n">
-        <v>2.62100887298584</v>
+        <v>2.757617950439453</v>
       </c>
       <c r="G2" t="n">
-        <v>2.229094266891479</v>
+        <v>2.522770881652832</v>
       </c>
       <c r="H2" t="n">
-        <v>2.779277801513672</v>
+        <v>1.670591592788696</v>
       </c>
       <c r="I2" t="n">
-        <v>2.13034725189209</v>
+        <v>3.09114933013916</v>
       </c>
       <c r="J2" t="n">
-        <v>1.791130781173706</v>
+        <v>1.695544242858887</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3.50489616394043</v>
+        <v>2.595386028289795</v>
       </c>
       <c r="B3" t="n">
-        <v>3.518494844436646</v>
+        <v>3.437409639358521</v>
       </c>
       <c r="C3" t="n">
-        <v>2.47504711151123</v>
+        <v>3.173366546630859</v>
       </c>
       <c r="D3" t="n">
-        <v>4.319181442260742</v>
+        <v>3.408724308013916</v>
       </c>
       <c r="E3" t="n">
-        <v>4.129179000854492</v>
+        <v>3.34021258354187</v>
       </c>
       <c r="F3" t="n">
-        <v>2.79299259185791</v>
+        <v>3.179931879043579</v>
       </c>
       <c r="G3" t="n">
-        <v>2.748009204864502</v>
+        <v>4.147687911987305</v>
       </c>
       <c r="H3" t="n">
-        <v>1.82437801361084</v>
+        <v>3.616066217422485</v>
       </c>
       <c r="I3" t="n">
-        <v>1.512712717056274</v>
+        <v>1.516425013542175</v>
       </c>
       <c r="J3" t="n">
-        <v>3.0307457447052</v>
+        <v>4.441815853118896</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3.314495801925659</v>
+        <v>4.551204681396484</v>
       </c>
       <c r="B4" t="n">
-        <v>2.744935989379883</v>
+        <v>4.796038627624512</v>
       </c>
       <c r="C4" t="n">
-        <v>2.079994201660156</v>
+        <v>1.43718421459198</v>
       </c>
       <c r="D4" t="n">
-        <v>3.745048761367798</v>
+        <v>3.578245401382446</v>
       </c>
       <c r="E4" t="n">
-        <v>4.222152233123779</v>
+        <v>4.372618198394775</v>
       </c>
       <c r="F4" t="n">
-        <v>2.582900047302246</v>
+        <v>2.175140857696533</v>
       </c>
       <c r="G4" t="n">
-        <v>2.057669639587402</v>
+        <v>1.923518419265747</v>
       </c>
       <c r="H4" t="n">
-        <v>1.582682609558105</v>
+        <v>3.928910732269287</v>
       </c>
       <c r="I4" t="n">
-        <v>2.447754383087158</v>
+        <v>3.065214395523071</v>
       </c>
       <c r="J4" t="n">
-        <v>2.721643447875977</v>
+        <v>4.181219100952148</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3.71485710144043</v>
+        <v>1.56511926651001</v>
       </c>
       <c r="B5" t="n">
-        <v>1.383512020111084</v>
+        <v>1.227289438247681</v>
       </c>
       <c r="C5" t="n">
-        <v>2.323132991790771</v>
+        <v>1.97418224811554</v>
       </c>
       <c r="D5" t="n">
-        <v>3.44939112663269</v>
+        <v>1.884215116500854</v>
       </c>
       <c r="E5" t="n">
-        <v>2.601175308227539</v>
+        <v>4.076504707336426</v>
       </c>
       <c r="F5" t="n">
-        <v>2.384447574615479</v>
+        <v>3.411192178726196</v>
       </c>
       <c r="G5" t="n">
-        <v>2.605416297912598</v>
+        <v>3.359495401382446</v>
       </c>
       <c r="H5" t="n">
-        <v>4.322493553161621</v>
+        <v>3.253376007080078</v>
       </c>
       <c r="I5" t="n">
-        <v>3.7389817237854</v>
+        <v>2.546016693115234</v>
       </c>
       <c r="J5" t="n">
-        <v>3.526368618011475</v>
+        <v>2.896721363067627</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2.785403728485107</v>
+        <v>2.577986717224121</v>
       </c>
       <c r="B6" t="n">
-        <v>2.708170890808105</v>
+        <v>1.944830775260925</v>
       </c>
       <c r="C6" t="n">
-        <v>1.455464720726013</v>
+        <v>4.226256370544434</v>
       </c>
       <c r="D6" t="n">
-        <v>3.309795379638672</v>
+        <v>3.233768224716187</v>
       </c>
       <c r="E6" t="n">
-        <v>3.319530248641968</v>
+        <v>4.462061405181885</v>
       </c>
       <c r="F6" t="n">
-        <v>2.813050508499146</v>
+        <v>4.228201866149902</v>
       </c>
       <c r="G6" t="n">
-        <v>4.336934089660645</v>
+        <v>3.533611536026001</v>
       </c>
       <c r="H6" t="n">
-        <v>3.053000688552856</v>
+        <v>3.477741003036499</v>
       </c>
       <c r="I6" t="n">
-        <v>3.564689159393311</v>
+        <v>4.320652961730957</v>
       </c>
       <c r="J6" t="n">
-        <v>2.901183128356934</v>
+        <v>2.109736680984497</v>
       </c>
     </row>
   </sheetData>
